--- a/excel/Описание_работ/10/География/ALL.xlsx
+++ b/excel/Описание_работ/10/География/ALL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="82">
   <si>
     <t>№ по КИМу</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>18</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Многообразие стран мира. Основные типы стран</t>
   </si>
 </sst>
 </file>
@@ -577,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H260"/>
+  <dimension ref="A1:H261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="K254" sqref="K254"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4616,7 +4622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>55</v>
       </c>
@@ -4639,27 +4645,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -4676,7 +4682,7 @@
         <v>33</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>48</v>
@@ -4699,7 +4705,7 @@
         <v>33</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>48</v>
@@ -4722,7 +4728,7 @@
         <v>33</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>48</v>
@@ -4745,7 +4751,7 @@
         <v>33</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>48</v>
@@ -4768,7 +4774,7 @@
         <v>33</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>48</v>
@@ -4779,45 +4785,45 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>14</v>
@@ -4837,7 +4843,7 @@
         <v>33</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>70</v>
@@ -4860,7 +4866,7 @@
         <v>33</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>70</v>
@@ -4883,7 +4889,7 @@
         <v>33</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>70</v>
@@ -4906,7 +4912,7 @@
         <v>33</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>70</v>
@@ -4929,7 +4935,7 @@
         <v>33</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>70</v>
@@ -4952,7 +4958,7 @@
         <v>33</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>70</v>
@@ -4975,7 +4981,7 @@
         <v>33</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>70</v>
@@ -4998,7 +5004,7 @@
         <v>33</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>70</v>
@@ -5021,7 +5027,7 @@
         <v>33</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>70</v>
@@ -5044,7 +5050,7 @@
         <v>33</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>70</v>
@@ -5067,7 +5073,7 @@
         <v>33</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>70</v>
@@ -5090,7 +5096,7 @@
         <v>33</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>70</v>
@@ -5113,7 +5119,7 @@
         <v>33</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>70</v>
@@ -5136,7 +5142,7 @@
         <v>33</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>70</v>
@@ -5159,7 +5165,7 @@
         <v>33</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>70</v>
@@ -5182,7 +5188,7 @@
         <v>33</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>70</v>
@@ -5205,7 +5211,7 @@
         <v>33</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>70</v>
@@ -5228,7 +5234,7 @@
         <v>33</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>70</v>
@@ -5251,7 +5257,7 @@
         <v>33</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>70</v>
@@ -5274,7 +5280,7 @@
         <v>33</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>70</v>
@@ -5297,7 +5303,7 @@
         <v>33</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>70</v>
@@ -5320,7 +5326,7 @@
         <v>33</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>70</v>
@@ -5343,7 +5349,7 @@
         <v>33</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>70</v>
@@ -5366,7 +5372,7 @@
         <v>33</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>70</v>
@@ -5377,10 +5383,10 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>75</v>
@@ -5389,10 +5395,10 @@
         <v>33</v>
       </c>
       <c r="F209" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G209" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="G209" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>14</v>
@@ -5412,7 +5418,7 @@
         <v>33</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>19</v>
@@ -5435,7 +5441,7 @@
         <v>33</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>19</v>
@@ -5458,7 +5464,7 @@
         <v>33</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>19</v>
@@ -5481,7 +5487,7 @@
         <v>33</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>19</v>
@@ -5504,7 +5510,7 @@
         <v>33</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>19</v>
@@ -5527,7 +5533,7 @@
         <v>33</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>19</v>
@@ -5550,7 +5556,7 @@
         <v>33</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>19</v>
@@ -5573,7 +5579,7 @@
         <v>33</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>19</v>
@@ -5596,7 +5602,7 @@
         <v>33</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>19</v>
@@ -5619,7 +5625,7 @@
         <v>33</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>19</v>
@@ -5642,7 +5648,7 @@
         <v>33</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>19</v>
@@ -5665,7 +5671,7 @@
         <v>33</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>19</v>
@@ -5688,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>19</v>
@@ -5711,7 +5717,7 @@
         <v>33</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>19</v>
@@ -5734,7 +5740,7 @@
         <v>33</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>19</v>
@@ -5757,7 +5763,7 @@
         <v>33</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>19</v>
@@ -5780,7 +5786,7 @@
         <v>33</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>19</v>
@@ -5803,7 +5809,7 @@
         <v>33</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>19</v>
@@ -5826,7 +5832,7 @@
         <v>33</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>19</v>
@@ -5849,7 +5855,7 @@
         <v>33</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>19</v>
@@ -5872,7 +5878,7 @@
         <v>33</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>19</v>
@@ -5895,7 +5901,7 @@
         <v>33</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>19</v>
@@ -5918,7 +5924,7 @@
         <v>33</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>19</v>
@@ -5941,7 +5947,7 @@
         <v>33</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G233" s="1" t="s">
         <v>19</v>
@@ -5952,22 +5958,22 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>14</v>
@@ -5987,7 +5993,7 @@
         <v>34</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>23</v>
@@ -6010,7 +6016,7 @@
         <v>34</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>23</v>
@@ -6033,7 +6039,7 @@
         <v>34</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>23</v>
@@ -6056,7 +6062,7 @@
         <v>34</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>23</v>
@@ -6079,7 +6085,7 @@
         <v>34</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>23</v>
@@ -6102,7 +6108,7 @@
         <v>34</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>23</v>
@@ -6125,7 +6131,7 @@
         <v>34</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>23</v>
@@ -6148,7 +6154,7 @@
         <v>34</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>23</v>
@@ -6171,7 +6177,7 @@
         <v>34</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>23</v>
@@ -6194,7 +6200,7 @@
         <v>34</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>23</v>
@@ -6217,7 +6223,7 @@
         <v>34</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>23</v>
@@ -6240,7 +6246,7 @@
         <v>34</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>23</v>
@@ -6263,7 +6269,7 @@
         <v>34</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>23</v>
@@ -6286,7 +6292,7 @@
         <v>34</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>23</v>
@@ -6309,7 +6315,7 @@
         <v>34</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>23</v>
@@ -6332,7 +6338,7 @@
         <v>34</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>23</v>
@@ -6355,7 +6361,7 @@
         <v>34</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>23</v>
@@ -6378,7 +6384,7 @@
         <v>34</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>23</v>
@@ -6401,7 +6407,7 @@
         <v>34</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>23</v>
@@ -6424,7 +6430,7 @@
         <v>34</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>23</v>
@@ -6447,7 +6453,7 @@
         <v>34</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>23</v>
@@ -6470,7 +6476,7 @@
         <v>34</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>23</v>
@@ -6493,7 +6499,7 @@
         <v>34</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G257" s="1" t="s">
         <v>23</v>
@@ -6516,7 +6522,7 @@
         <v>34</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>23</v>
@@ -6527,33 +6533,33 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>76</v>
@@ -6568,6 +6574,29 @@
         <v>23</v>
       </c>
       <c r="H260" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H261" s="1" t="s">
         <v>14</v>
       </c>
     </row>
